--- a/Documents/S-158-98/0.2.0/S-158_98_0_2_0_20241125.xlsx
+++ b/Documents/S-158-98/0.2.0/S-158_98_0_2_0_20241125.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\git\S-100-Validation-Checks\Documents\S-158-98\0.2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF55E3A-2E32-4BEE-B49C-E67E3510E6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3352021D-5969-4EF6-B344-8A6436AB634E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="18240" activeTab="1" xr2:uid="{D500D42E-56ED-44C2-B321-3F3845968AA3}"/>
   </bookViews>
@@ -288,7 +288,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="246">
   <si>
     <t>Classification</t>
   </si>
@@ -1142,6 +1142,18 @@
   </si>
   <si>
     <t>98_XXXX</t>
+  </si>
+  <si>
+    <t>Update CATALOG.XML</t>
+  </si>
+  <si>
+    <t>Update CATALOG.XML or dataset</t>
+  </si>
+  <si>
+    <t>Amend dataset</t>
+  </si>
+  <si>
+    <t>(to be removed)</t>
   </si>
 </sst>
 </file>
@@ -2502,8 +2514,8 @@
   <dimension ref="A1:Q449"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2596,7 +2608,9 @@
       <c r="E2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="43"/>
+      <c r="F2" s="43" t="s">
+        <v>243</v>
+      </c>
       <c r="G2" s="43" t="s">
         <v>91</v>
       </c>
@@ -2633,7 +2647,9 @@
       <c r="E3" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="43"/>
+      <c r="F3" s="43" t="s">
+        <v>243</v>
+      </c>
       <c r="G3" s="43" t="s">
         <v>91</v>
       </c>
@@ -2670,7 +2686,9 @@
       <c r="E4" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="43"/>
+      <c r="F4" s="43" t="s">
+        <v>242</v>
+      </c>
       <c r="G4" s="43" t="s">
         <v>91</v>
       </c>
@@ -2707,7 +2725,9 @@
       <c r="E5" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="43"/>
+      <c r="F5" s="43" t="s">
+        <v>242</v>
+      </c>
       <c r="G5" s="43" t="s">
         <v>91</v>
       </c>
@@ -2744,7 +2764,9 @@
       <c r="E6" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="30"/>
+      <c r="F6" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G6" s="43" t="s">
         <v>91</v>
       </c>
@@ -2781,7 +2803,9 @@
       <c r="E7" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="43"/>
+      <c r="F7" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G7" s="43" t="s">
         <v>91</v>
       </c>
@@ -2818,7 +2842,9 @@
       <c r="E8" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="48"/>
+      <c r="F8" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G8" s="43" t="s">
         <v>91</v>
       </c>
@@ -2855,7 +2881,9 @@
       <c r="E9" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="48"/>
+      <c r="F9" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G9" s="43" t="s">
         <v>91</v>
       </c>
@@ -2892,7 +2920,9 @@
       <c r="E10" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="43"/>
+      <c r="F10" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G10" s="43" t="s">
         <v>91</v>
       </c>
@@ -2929,7 +2959,9 @@
       <c r="E11" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="48"/>
+      <c r="F11" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G11" s="43" t="s">
         <v>91</v>
       </c>
@@ -2966,7 +2998,9 @@
       <c r="E12" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="43"/>
+      <c r="F12" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G12" s="43" t="s">
         <v>91</v>
       </c>
@@ -3003,7 +3037,9 @@
       <c r="E13" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G13" s="43" t="s">
         <v>91</v>
       </c>
@@ -3035,7 +3071,9 @@
       <c r="E14" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="43"/>
+      <c r="F14" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G14" s="43" t="s">
         <v>91</v>
       </c>
@@ -3072,7 +3110,9 @@
       <c r="E15" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="43"/>
+      <c r="F15" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G15" s="43" t="s">
         <v>91</v>
       </c>
@@ -3109,7 +3149,9 @@
       <c r="E16" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="30"/>
+      <c r="F16" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G16" s="43" t="s">
         <v>91</v>
       </c>
@@ -3146,7 +3188,9 @@
       <c r="E17" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="43"/>
+      <c r="F17" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G17" s="43" t="s">
         <v>91</v>
       </c>
@@ -3222,7 +3266,9 @@
       <c r="E19" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="43"/>
+      <c r="F19" s="43" t="s">
+        <v>245</v>
+      </c>
       <c r="G19" s="43" t="s">
         <v>91</v>
       </c>
@@ -3259,7 +3305,9 @@
       <c r="E20" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="32"/>
+      <c r="F20" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G20" s="43" t="s">
         <v>91</v>
       </c>
@@ -3296,7 +3344,9 @@
       <c r="E21" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="43"/>
+      <c r="F21" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G21" s="43" t="s">
         <v>91</v>
       </c>
@@ -3333,7 +3383,9 @@
       <c r="E22" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="32"/>
+      <c r="F22" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G22" s="43" t="s">
         <v>91</v>
       </c>
@@ -3365,7 +3417,9 @@
       <c r="E23" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="43"/>
+      <c r="F23" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G23" s="43" t="s">
         <v>91</v>
       </c>
@@ -3402,7 +3456,9 @@
       <c r="E24" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="43"/>
+      <c r="F24" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G24" s="43" t="s">
         <v>91</v>
       </c>
@@ -3439,7 +3495,9 @@
       <c r="E25" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="43"/>
+      <c r="F25" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G25" s="43" t="s">
         <v>91</v>
       </c>
@@ -3475,7 +3533,9 @@
       <c r="E26" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="43"/>
+      <c r="F26" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G26" s="43" t="s">
         <v>91</v>
       </c>
@@ -3509,7 +3569,9 @@
       <c r="E27" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="43"/>
+      <c r="F27" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G27" s="43" t="s">
         <v>91</v>
       </c>
@@ -3615,7 +3677,9 @@
       <c r="E30" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="31"/>
+      <c r="F30" s="43" t="s">
+        <v>243</v>
+      </c>
       <c r="G30" s="43" t="s">
         <v>91</v>
       </c>
@@ -3649,7 +3713,9 @@
       <c r="E31" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="31"/>
+      <c r="F31" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G31" s="43" t="s">
         <v>91</v>
       </c>
@@ -3683,7 +3749,9 @@
       <c r="E32" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="43"/>
+      <c r="F32" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G32" s="43" t="s">
         <v>91</v>
       </c>
@@ -3717,7 +3785,9 @@
       <c r="E33" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="43"/>
+      <c r="F33" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G33" s="43" t="s">
         <v>91</v>
       </c>
@@ -3751,7 +3821,9 @@
       <c r="E34" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="43"/>
+      <c r="F34" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G34" s="43" t="s">
         <v>91</v>
       </c>
@@ -3785,7 +3857,9 @@
       <c r="E35" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="43"/>
+      <c r="F35" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G35" s="43" t="s">
         <v>91</v>
       </c>
@@ -3819,7 +3893,9 @@
       <c r="E36" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="F36" s="43"/>
+      <c r="F36" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G36" s="43" t="s">
         <v>91</v>
       </c>
@@ -3853,7 +3929,9 @@
       <c r="E37" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="F37" s="43"/>
+      <c r="F37" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G37" s="43" t="s">
         <v>91</v>
       </c>
@@ -3887,7 +3965,9 @@
       <c r="E38" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="31"/>
+      <c r="F38" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G38" s="43" t="s">
         <v>91</v>
       </c>
@@ -3921,7 +4001,9 @@
       <c r="E39" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="F39" s="43"/>
+      <c r="F39" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G39" s="43" t="s">
         <v>91</v>
       </c>
@@ -4083,7 +4165,7 @@
         <v>162</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D44" s="35" t="s">
         <v>109</v>
